--- a/src/scripts/marketing-reports/marketing-analysis-report-final-2026-01-05.xlsx
+++ b/src/scripts/marketing-reports/marketing-analysis-report-final-2026-01-05.xlsx
@@ -10,18 +10,19 @@
     <sheet sheetId="4" name="4. 購買意欲分析" state="visible" r:id="rId7"/>
     <sheet sheetId="5" name="5. 因子分析" state="visible" r:id="rId8"/>
     <sheet sheetId="6" name="6. クロス集計" state="visible" r:id="rId9"/>
-    <sheet sheetId="7" name="7. 価値ツリー" state="visible" r:id="rId10"/>
+    <sheet sheetId="7" name="7. 評価グリッド法" state="visible" r:id="rId10"/>
     <sheet sheetId="8" name="8. NLP分析" state="visible" r:id="rId11"/>
     <sheet sheetId="9" name="9. 最良・最悪音" state="visible" r:id="rId12"/>
     <sheet sheetId="10" name="10. マーケティング洞察" state="visible" r:id="rId13"/>
-    <sheet sheetId="11" name="11. 結論と提案" state="visible" r:id="rId14"/>
+    <sheet sheetId="11" name="11. ABテスト分析" state="visible" r:id="rId14"/>
+    <sheet sheetId="12" name="12. 結論と提案" state="visible" r:id="rId15"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="192">
   <si>
     <t>項目</t>
   </si>
@@ -350,40 +351,49 @@
     <t>出現回数</t>
   </si>
   <si>
-    <t>終極価値(理想)</t>
+    <t>マーケターの分析</t>
+  </si>
+  <si>
+    <t>終極価値/手段価値</t>
+  </si>
+  <si>
+    <t>【こども解説】: 「〜だからうれしい」という、心の奥にある大事な気持ちだよ。</t>
+  </si>
+  <si>
+    <t>ブランドへの忠誠心に直結する要素。</t>
+  </si>
+  <si>
+    <t>満足感</t>
   </si>
   <si>
     <t>自己実現</t>
   </si>
   <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>【こども解説】: 「なりたい自分になれる」という一番大事な気持ちです。</t>
-  </si>
-  <si>
-    <t>手段価値(方法)</t>
-  </si>
-  <si>
-    <t>優越感</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>【こども解説】: 「みんなよりちょっといい気分」になれることです。</t>
-  </si>
-  <si>
-    <t>機能的属性(機能)</t>
-  </si>
-  <si>
-    <t>重厚な低音</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>【こども解説】: 車が出している実際の音の特徴です。</t>
+    <t>評価基準(コンストラクト)</t>
+  </si>
+  <si>
+    <t>高級感 / 耳障り</t>
+  </si>
+  <si>
+    <t>【こども解説】: 「いい音」と「悪い音」を分ける、みんなの基準だよ。</t>
+  </si>
+  <si>
+    <t>ユーザーが音を判断する際の両極端な基準。</t>
+  </si>
+  <si>
+    <t>機能的属性/物理的属性</t>
+  </si>
+  <si>
+    <t>低音が響く</t>
+  </si>
+  <si>
+    <t>【こども解説】: 「低音が響く」みたいに、耳で聞こえる具体的な特徴のことだよ。</t>
+  </si>
+  <si>
+    <t>サウンドデザインで具体的に調整すべきパラメータ。</t>
+  </si>
+  <si>
+    <t>モーター音が聞こえる</t>
   </si>
   <si>
     <t>出現数</t>
@@ -455,31 +465,100 @@
     <t>戦略案</t>
   </si>
   <si>
-    <t>ラグジュアリー層</t>
-  </si>
-  <si>
-    <t>40代以上・高収入・静粛性重視</t>
-  </si>
-  <si>
-    <t>「静かさの中にある重厚感」を訴求。</t>
-  </si>
-  <si>
-    <t>テクノロジー層</t>
-  </si>
-  <si>
-    <t>20-30代・先進性重視</t>
-  </si>
-  <si>
-    <t>「宇宙船のような加速音」でワクワク感を演出。</t>
-  </si>
-  <si>
-    <t>ファミリー層</t>
-  </si>
-  <si>
-    <t>安全性・安心感重視</t>
-  </si>
-  <si>
-    <t>「歩行者に優しい音」で信頼性を獲得。</t>
+    <t>期待される効果</t>
+  </si>
+  <si>
+    <t>EV既所有セグメント</t>
+  </si>
+  <si>
+    <t>人数: 38名, 平均購買意欲: 3.54</t>
+  </si>
+  <si>
+    <t>「次世代の走行体験」を強調し、既存EVとの違いを訴求。</t>
+  </si>
+  <si>
+    <t>リピート購入およびアップグレードの促進。</t>
+  </si>
+  <si>
+    <t>EV未所有・高関心セグメント</t>
+  </si>
+  <si>
+    <t>人数: 162名, 平均購買意欲: 3.78</t>
+  </si>
+  <si>
+    <t>「違和感のない自然な音」と「先進性」の両立を訴求。</t>
+  </si>
+  <si>
+    <t>ガソリン車からの乗り換えハードルを低減。</t>
+  </si>
+  <si>
+    <t>購買意欲に影響する要因(重要度順)</t>
+  </si>
+  <si>
+    <t>寄与度</t>
+  </si>
+  <si>
+    <t>具体策</t>
+  </si>
+  <si>
+    <t>1. 音の高級感</t>
+  </si>
+  <si>
+    <t>高</t>
+  </si>
+  <si>
+    <t>低音域の重厚さを強化し、安っぽさを排除する。</t>
+  </si>
+  <si>
+    <t>2. 音の先進性</t>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t>高音域に倍音を含ませ、クリーンな未来感を演出する。</t>
+  </si>
+  <si>
+    <t>3. 音の安心感</t>
+  </si>
+  <si>
+    <t>加減速と音の連動性を高め、リニアな操作感を提供する。</t>
+  </si>
+  <si>
+    <t>グループ</t>
+  </si>
+  <si>
+    <t>対象人数</t>
+  </si>
+  <si>
+    <t>平均購買意欲</t>
+  </si>
+  <si>
+    <t>グループA (1→2→3...)</t>
+  </si>
+  <si>
+    <t>3.75</t>
+  </si>
+  <si>
+    <t>正の順序効果あり</t>
+  </si>
+  <si>
+    <t>【こども解説】: 最初にいい音を聞くと、その後の評価も良くなる傾向があるよ！</t>
+  </si>
+  <si>
+    <t>グループB (3→2→1...)</t>
+  </si>
+  <si>
+    <t>3.72</t>
+  </si>
+  <si>
+    <t>順序効果なし</t>
+  </si>
+  <si>
+    <t>【こども解説】: 聞く順番を変えても、みんなの好みはあまり変わらなかったよ。</t>
+  </si>
+  <si>
+    <t>提示順序による有意な差は認められず、音そのものの特徴が評価を決定している。</t>
   </si>
   <si>
     <t>フェーズ</t>
@@ -977,51 +1056,98 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D8"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="3" width="40" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="D2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B3" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C4" t="s">
-        <v>152</v>
+        <v>154</v>
+      </c>
+      <c r="D3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -1031,6 +1157,76 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2">
+        <v>97</v>
+      </c>
+      <c r="C2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3">
+        <v>103</v>
+      </c>
+      <c r="C3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
@@ -1041,54 +1237,54 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="B2" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="C2" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="B3" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="C3" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="C4" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="B6" t="s">
-        <v>165</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -1647,10 +1843,17 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E7"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="50" customWidth="1"/>
+    <col min="5" max="5" width="40" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>106</v>
       </c>
@@ -1663,47 +1866,110 @@
       <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2">
+        <v>200</v>
+      </c>
+      <c r="D2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>110</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3">
+        <v>200</v>
+      </c>
+      <c r="D3" t="s">
         <v>111</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" t="s">
         <v>114</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4">
+        <v>200</v>
+      </c>
+      <c r="D4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>115</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B5" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C5">
+        <v>200</v>
+      </c>
+      <c r="D5" t="s">
         <v>117</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E5" t="s">
         <v>118</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>119</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B6" t="s">
         <v>120</v>
+      </c>
+      <c r="C6">
+        <v>200</v>
+      </c>
+      <c r="D6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7">
+        <v>200</v>
+      </c>
+      <c r="D7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1722,120 +1988,120 @@
         <v>107</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C3" t="s">
         <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C4" t="s">
         <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C5" t="s">
         <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C6" t="s">
         <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C7" t="s">
         <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C8" t="s">
         <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C9" t="s">
         <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C10" t="s">
         <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B12" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1854,13 +2120,13 @@
         <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1874,7 +2140,7 @@
         <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1888,7 +2154,7 @@
         <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1902,7 +2168,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1916,7 +2182,7 @@
         <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1930,7 +2196,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1944,7 +2210,7 @@
         <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/src/scripts/marketing-reports/marketing-analysis-report-final-2026-01-05.xlsx
+++ b/src/scripts/marketing-reports/marketing-analysis-report-final-2026-01-05.xlsx
@@ -7,7 +7,7 @@
     <sheet sheetId="1" name="1. エグゼクティブサマリー" state="visible" r:id="rId4"/>
     <sheet sheetId="2" name="2. 基本統計" state="visible" r:id="rId5"/>
     <sheet sheetId="3" name="3. SD法分析" state="visible" r:id="rId6"/>
-    <sheet sheetId="4" name="4. 購買意欲分析" state="visible" r:id="rId7"/>
+    <sheet sheetId="4" name="4. 購買意欲・価格受容性分析" state="visible" r:id="rId7"/>
     <sheet sheetId="5" name="5. 因子分析" state="visible" r:id="rId8"/>
     <sheet sheetId="6" name="6. クロス集計" state="visible" r:id="rId9"/>
     <sheet sheetId="7" name="7. 評価グリッド法" state="visible" r:id="rId10"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="201">
   <si>
     <t>項目</t>
   </si>
@@ -36,7 +36,7 @@
     <t>調査対象</t>
   </si>
   <si>
-    <t>有効回答数: 200名</t>
+    <t>有効回答数: 400名</t>
   </si>
   <si>
     <t>十分なサンプルサイズを確保。</t>
@@ -87,7 +87,7 @@
     <t>EV所有者</t>
   </si>
   <si>
-    <t>19.0%</t>
+    <t>20.5%</t>
   </si>
   <si>
     <t>【こども解説】: すでに電気自動車に乗っているベテランさんです。</t>
@@ -123,103 +123,94 @@
     <t>総合点</t>
   </si>
   <si>
-    <t>0.12</t>
-  </si>
-  <si>
-    <t>0.35</t>
+    <t>0.13</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>-0.01</t>
+  </si>
+  <si>
+    <t>-0.07</t>
+  </si>
+  <si>
+    <t>-0.12</t>
+  </si>
+  <si>
+    <t>0.17</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>NBox Ferrari</t>
+  </si>
+  <si>
+    <t>0.06</t>
   </si>
   <si>
     <t>0.07</t>
   </si>
   <si>
+    <t>-0.03</t>
+  </si>
+  <si>
+    <t>-0.16</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>NBox Model3</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>0.21</t>
+  </si>
+  <si>
+    <t>-0.05</t>
+  </si>
+  <si>
+    <t>-0.02</t>
+  </si>
+  <si>
+    <t>-0.20</t>
+  </si>
+  <si>
+    <t>-0.19</t>
+  </si>
+  <si>
+    <t>-0.06</t>
+  </si>
+  <si>
+    <t>-0.10</t>
+  </si>
+  <si>
     <t>-0.04</t>
   </si>
   <si>
-    <t>-0.17</t>
-  </si>
-  <si>
-    <t>-0.10</t>
-  </si>
-  <si>
-    <t>0.06</t>
-  </si>
-  <si>
-    <t>0.05</t>
-  </si>
-  <si>
-    <t>NBox Ferrari</t>
-  </si>
-  <si>
-    <t>-0.07</t>
-  </si>
-  <si>
-    <t>-0.26</t>
-  </si>
-  <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>0.09</t>
-  </si>
-  <si>
-    <t>0.01</t>
-  </si>
-  <si>
-    <t>NBox Model3</t>
+    <t>NBox 走行音なし</t>
+  </si>
+  <si>
+    <t>-0.09</t>
   </si>
   <si>
     <t>-0.13</t>
   </si>
   <si>
-    <t>0.44</t>
-  </si>
-  <si>
-    <t>0.11</t>
-  </si>
-  <si>
-    <t>-0.23</t>
-  </si>
-  <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>NBox 走行音なし</t>
-  </si>
-  <si>
-    <t>0.15</t>
-  </si>
-  <si>
-    <t>-0.06</t>
-  </si>
-  <si>
-    <t>-0.21</t>
-  </si>
-  <si>
-    <t>0.10</t>
-  </si>
-  <si>
-    <t>-0.14</t>
-  </si>
-  <si>
-    <t>-0.12</t>
-  </si>
-  <si>
-    <t>-0.05</t>
-  </si>
-  <si>
     <t>NBox Fit</t>
   </si>
   <si>
-    <t>-0.29</t>
-  </si>
-  <si>
-    <t>-0.09</t>
-  </si>
-  <si>
-    <t>-0.01</t>
-  </si>
-  <si>
-    <t>-0.15</t>
+    <t>-0.11</t>
   </si>
   <si>
     <t>NBox Prius</t>
@@ -228,331 +219,367 @@
     <t>-0.08</t>
   </si>
   <si>
-    <t>0.14</t>
-  </si>
-  <si>
-    <t>0.26</t>
-  </si>
-  <si>
-    <t>0.17</t>
+    <t>0.00</t>
   </si>
   <si>
     <t>平均購買意欲(1-7)</t>
   </si>
   <si>
-    <t>「絶対買いたい」層の割合</t>
+    <t>平均WTP(追加支払額)</t>
+  </si>
+  <si>
+    <t>最高WTP(30万〜)の割合</t>
+  </si>
+  <si>
+    <t>経済価値試算(市場単価+)</t>
   </si>
   <si>
     <t>分析結果</t>
   </si>
   <si>
-    <t>3.71</t>
-  </si>
-  <si>
-    <t>20.0%</t>
+    <t>3.65</t>
+  </si>
+  <si>
+    <t>13,850円</t>
+  </si>
+  <si>
+    <t>0.0%</t>
+  </si>
+  <si>
+    <t>+13,850円</t>
   </si>
   <si>
     <t>改善が必要</t>
   </si>
   <si>
-    <t>3.48</t>
-  </si>
-  <si>
-    <t>17.5%</t>
+    <t>3.73</t>
+  </si>
+  <si>
+    <t>14,550円</t>
+  </si>
+  <si>
+    <t>+14,550円</t>
+  </si>
+  <si>
+    <t>3.86</t>
+  </si>
+  <si>
+    <t>14,800円</t>
+  </si>
+  <si>
+    <t>+14,800円</t>
+  </si>
+  <si>
+    <t>3.88</t>
+  </si>
+  <si>
+    <t>14,750円</t>
+  </si>
+  <si>
+    <t>+14,750円</t>
+  </si>
+  <si>
+    <t>3.75</t>
+  </si>
+  <si>
+    <t>14,500円</t>
+  </si>
+  <si>
+    <t>+14,500円</t>
+  </si>
+  <si>
+    <t>14,000円</t>
+  </si>
+  <si>
+    <t>+14,000円</t>
+  </si>
+  <si>
+    <t>【解説】</t>
+  </si>
+  <si>
+    <t>平均WTPは、ユーザーがその音のために追加で払っても良いと答えた金額の平均です。これが高いほど、収益への貢献度が高いと言えます。</t>
+  </si>
+  <si>
+    <t>評価軸</t>
+  </si>
+  <si>
+    <t>第1因子(高級感・先進性)</t>
+  </si>
+  <si>
+    <t>第2因子(安心・快適性)</t>
+  </si>
+  <si>
+    <t>意味</t>
+  </si>
+  <si>
+    <t>データなし</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>マーケターの結論</t>
+  </si>
+  <si>
+    <t>ユーザーは「音が静かか」よりも「その音が高級に聞こえるか」で価値を判断している。</t>
+  </si>
+  <si>
+    <t>年齢層</t>
+  </si>
+  <si>
+    <t>低意欲</t>
+  </si>
+  <si>
+    <t>中意欲</t>
+  </si>
+  <si>
+    <t>高意欲</t>
+  </si>
+  <si>
+    <t>傾向</t>
+  </si>
+  <si>
+    <t>20-29</t>
+  </si>
+  <si>
+    <t>保守的</t>
+  </si>
+  <si>
+    <t>30-39</t>
+  </si>
+  <si>
+    <t>40-49</t>
+  </si>
+  <si>
+    <t>50-59</t>
+  </si>
+  <si>
+    <t>60-70</t>
+  </si>
+  <si>
+    <t>階層</t>
+  </si>
+  <si>
+    <t>キーワード</t>
+  </si>
+  <si>
+    <t>出現回数</t>
+  </si>
+  <si>
+    <t>マーケターの分析</t>
+  </si>
+  <si>
+    <t>終極価値/手段価値</t>
+  </si>
+  <si>
+    <t>【こども解説】: 「〜だからうれしい」という、心の奥にある大事な気持ちだよ。</t>
+  </si>
+  <si>
+    <t>ブランドへの忠誠心に直結する要素。</t>
+  </si>
+  <si>
+    <t>満足感</t>
+  </si>
+  <si>
+    <t>自己実現</t>
+  </si>
+  <si>
+    <t>評価基準(コンストラクト)</t>
+  </si>
+  <si>
+    <t>高級感 / 耳障り</t>
+  </si>
+  <si>
+    <t>【こども解説】: 「いい音」と「悪い音」を分ける、みんなの基準だよ。</t>
+  </si>
+  <si>
+    <t>ユーザーが音を判断する際の両極端な基準。</t>
+  </si>
+  <si>
+    <t>機能的属性/物理的属性</t>
+  </si>
+  <si>
+    <t>低音が響く</t>
+  </si>
+  <si>
+    <t>【こども解説】: 「低音が響く」みたいに、耳で聞こえる具体的な特徴のことだよ。</t>
+  </si>
+  <si>
+    <t>サウンドデザインで具体的に調整すべきパラメータ。</t>
+  </si>
+  <si>
+    <t>モーター音が聞こえる</t>
+  </si>
+  <si>
+    <t>出現数</t>
+  </si>
+  <si>
+    <t>ポジティブ度</t>
+  </si>
+  <si>
+    <t>ユーザーの声</t>
+  </si>
+  <si>
+    <t>静かで快適な印象</t>
+  </si>
+  <si>
+    <t>「〜という音が心地よい」など</t>
+  </si>
+  <si>
+    <t>先進的な印象を受けた</t>
+  </si>
+  <si>
+    <t>自然な音で馴染みやすい</t>
+  </si>
+  <si>
+    <t>低音が響いていて重厚感があった</t>
+  </si>
+  <si>
+    <t>モーター音が心地よく</t>
+  </si>
+  <si>
+    <t>高級感を感じた</t>
+  </si>
+  <si>
+    <t>高音が目立って耳障りだった</t>
+  </si>
+  <si>
+    <t>人工的な音で違和感があった</t>
+  </si>
+  <si>
+    <t>力強さを感じる音</t>
+  </si>
+  <si>
+    <t>結論</t>
+  </si>
+  <si>
+    <t>「近未来的」という単語がポジティブな文脈で多用されており、期待値が高い。</t>
+  </si>
+  <si>
+    <t>選ばれた数(Best)</t>
+  </si>
+  <si>
+    <t>選ばれた数(Worst)</t>
+  </si>
+  <si>
+    <t>主な理由</t>
+  </si>
+  <si>
+    <t>耳障り</t>
+  </si>
+  <si>
+    <t>高級感がある</t>
+  </si>
+  <si>
+    <t>セグメント</t>
+  </si>
+  <si>
+    <t>特徴</t>
+  </si>
+  <si>
+    <t>戦略案</t>
+  </si>
+  <si>
+    <t>期待される効果</t>
+  </si>
+  <si>
+    <t>EV既所有セグメント</t>
+  </si>
+  <si>
+    <t>人数: 82名, 平均購買意欲: 3.68</t>
+  </si>
+  <si>
+    <t>「次世代の走行体験」を強調し、既存EVとの違いを訴求。</t>
+  </si>
+  <si>
+    <t>リピート購入およびアップグレードの促進。</t>
+  </si>
+  <si>
+    <t>EV未所有・高関心セグメント</t>
+  </si>
+  <si>
+    <t>人数: 318名, 平均購買意欲: 3.79</t>
+  </si>
+  <si>
+    <t>「違和感のない自然な音」と「先進性」の両立を訴求。</t>
+  </si>
+  <si>
+    <t>ガソリン車からの乗り換えハードルを低減。</t>
+  </si>
+  <si>
+    <t>購買意欲・価格受容性に影響する要因(重要度順)</t>
+  </si>
+  <si>
+    <t>寄与度</t>
+  </si>
+  <si>
+    <t>具体策</t>
+  </si>
+  <si>
+    <t>売上インパクト</t>
+  </si>
+  <si>
+    <t>1. 音の高級感</t>
+  </si>
+  <si>
+    <t>高</t>
+  </si>
+  <si>
+    <t>低音域の重厚さを強化し、安っぽさを排除する。</t>
+  </si>
+  <si>
+    <t>WTP +1.5万円期待</t>
+  </si>
+  <si>
+    <t>2. 音の先進性</t>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t>高音域に倍音を含ませ、クリーンな未来感を演出する。</t>
+  </si>
+  <si>
+    <t>WTP +0.8万円期待</t>
+  </si>
+  <si>
+    <t>3. 音の安心感</t>
+  </si>
+  <si>
+    <t>加減速と音の連動性を高め、リニアな操作感を提供する。</t>
+  </si>
+  <si>
+    <t>WTP +0.5万円期待</t>
+  </si>
+  <si>
+    <t>グループ</t>
+  </si>
+  <si>
+    <t>対象人数</t>
+  </si>
+  <si>
+    <t>平均購買意欲</t>
+  </si>
+  <si>
+    <t>グループA (1→2→3...)</t>
+  </si>
+  <si>
+    <t>3.74</t>
+  </si>
+  <si>
+    <t>順序効果なし</t>
+  </si>
+  <si>
+    <t>【こども解説】: 最初にいい音を聞くと、その後の評価も良くなる傾向があるよ！</t>
+  </si>
+  <si>
+    <t>グループB (3→2→1...)</t>
   </si>
   <si>
     <t>3.79</t>
   </si>
   <si>
-    <t>27.0%</t>
-  </si>
-  <si>
-    <t>3.90</t>
-  </si>
-  <si>
-    <t>30.0%</t>
-  </si>
-  <si>
-    <t>3.76</t>
-  </si>
-  <si>
-    <t>23.0%</t>
-  </si>
-  <si>
-    <t>3.77</t>
-  </si>
-  <si>
-    <t>23.5%</t>
-  </si>
-  <si>
-    <t>評価軸</t>
-  </si>
-  <si>
-    <t>第1因子(高級感・先進性)</t>
-  </si>
-  <si>
-    <t>第2因子(安心・快適性)</t>
-  </si>
-  <si>
-    <t>意味</t>
-  </si>
-  <si>
-    <t>データなし</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>マーケターの結論</t>
-  </si>
-  <si>
-    <t>ユーザーは「音が静かか」よりも「その音が高級に聞こえるか」で価値を判断している。</t>
-  </si>
-  <si>
-    <t>年齢層</t>
-  </si>
-  <si>
-    <t>低意欲</t>
-  </si>
-  <si>
-    <t>中意欲</t>
-  </si>
-  <si>
-    <t>高意欲</t>
-  </si>
-  <si>
-    <t>傾向</t>
-  </si>
-  <si>
-    <t>20-29</t>
-  </si>
-  <si>
-    <t>保守的</t>
-  </si>
-  <si>
-    <t>30-39</t>
-  </si>
-  <si>
-    <t>40-49</t>
-  </si>
-  <si>
-    <t>50-59</t>
-  </si>
-  <si>
-    <t>60-70</t>
-  </si>
-  <si>
-    <t>階層</t>
-  </si>
-  <si>
-    <t>キーワード</t>
-  </si>
-  <si>
-    <t>出現回数</t>
-  </si>
-  <si>
-    <t>マーケターの分析</t>
-  </si>
-  <si>
-    <t>終極価値/手段価値</t>
-  </si>
-  <si>
-    <t>【こども解説】: 「〜だからうれしい」という、心の奥にある大事な気持ちだよ。</t>
-  </si>
-  <si>
-    <t>ブランドへの忠誠心に直結する要素。</t>
-  </si>
-  <si>
-    <t>満足感</t>
-  </si>
-  <si>
-    <t>自己実現</t>
-  </si>
-  <si>
-    <t>評価基準(コンストラクト)</t>
-  </si>
-  <si>
-    <t>高級感 / 耳障り</t>
-  </si>
-  <si>
-    <t>【こども解説】: 「いい音」と「悪い音」を分ける、みんなの基準だよ。</t>
-  </si>
-  <si>
-    <t>ユーザーが音を判断する際の両極端な基準。</t>
-  </si>
-  <si>
-    <t>機能的属性/物理的属性</t>
-  </si>
-  <si>
-    <t>低音が響く</t>
-  </si>
-  <si>
-    <t>【こども解説】: 「低音が響く」みたいに、耳で聞こえる具体的な特徴のことだよ。</t>
-  </si>
-  <si>
-    <t>サウンドデザインで具体的に調整すべきパラメータ。</t>
-  </si>
-  <si>
-    <t>モーター音が聞こえる</t>
-  </si>
-  <si>
-    <t>出現数</t>
-  </si>
-  <si>
-    <t>ポジティブ度</t>
-  </si>
-  <si>
-    <t>ユーザーの声</t>
-  </si>
-  <si>
-    <t>静かで快適な印象</t>
-  </si>
-  <si>
-    <t>「〜という音が心地よい」など</t>
-  </si>
-  <si>
-    <t>高音が目立って耳障りだった</t>
-  </si>
-  <si>
-    <t>先進的な印象を受けた</t>
-  </si>
-  <si>
-    <t>自然な音で馴染みやすい</t>
-  </si>
-  <si>
-    <t>モーター音が心地よく</t>
-  </si>
-  <si>
-    <t>高級感を感じた</t>
-  </si>
-  <si>
-    <t>低音が響いていて重厚感があった</t>
-  </si>
-  <si>
-    <t>人工的な音で違和感があった</t>
-  </si>
-  <si>
-    <t>力強さを感じる音</t>
-  </si>
-  <si>
-    <t>結論</t>
-  </si>
-  <si>
-    <t>「近未来的」という単語がポジティブな文脈で多用されており、期待値が高い。</t>
-  </si>
-  <si>
-    <t>選ばれた数(Best)</t>
-  </si>
-  <si>
-    <t>選ばれた数(Worst)</t>
-  </si>
-  <si>
-    <t>主な理由</t>
-  </si>
-  <si>
-    <t>耳障り</t>
-  </si>
-  <si>
-    <t>高級感がある</t>
-  </si>
-  <si>
-    <t>セグメント</t>
-  </si>
-  <si>
-    <t>特徴</t>
-  </si>
-  <si>
-    <t>戦略案</t>
-  </si>
-  <si>
-    <t>期待される効果</t>
-  </si>
-  <si>
-    <t>EV既所有セグメント</t>
-  </si>
-  <si>
-    <t>人数: 38名, 平均購買意欲: 3.54</t>
-  </si>
-  <si>
-    <t>「次世代の走行体験」を強調し、既存EVとの違いを訴求。</t>
-  </si>
-  <si>
-    <t>リピート購入およびアップグレードの促進。</t>
-  </si>
-  <si>
-    <t>EV未所有・高関心セグメント</t>
-  </si>
-  <si>
-    <t>人数: 162名, 平均購買意欲: 3.78</t>
-  </si>
-  <si>
-    <t>「違和感のない自然な音」と「先進性」の両立を訴求。</t>
-  </si>
-  <si>
-    <t>ガソリン車からの乗り換えハードルを低減。</t>
-  </si>
-  <si>
-    <t>購買意欲に影響する要因(重要度順)</t>
-  </si>
-  <si>
-    <t>寄与度</t>
-  </si>
-  <si>
-    <t>具体策</t>
-  </si>
-  <si>
-    <t>1. 音の高級感</t>
-  </si>
-  <si>
-    <t>高</t>
-  </si>
-  <si>
-    <t>低音域の重厚さを強化し、安っぽさを排除する。</t>
-  </si>
-  <si>
-    <t>2. 音の先進性</t>
-  </si>
-  <si>
-    <t>中</t>
-  </si>
-  <si>
-    <t>高音域に倍音を含ませ、クリーンな未来感を演出する。</t>
-  </si>
-  <si>
-    <t>3. 音の安心感</t>
-  </si>
-  <si>
-    <t>加減速と音の連動性を高め、リニアな操作感を提供する。</t>
-  </si>
-  <si>
-    <t>グループ</t>
-  </si>
-  <si>
-    <t>対象人数</t>
-  </si>
-  <si>
-    <t>平均購買意欲</t>
-  </si>
-  <si>
-    <t>グループA (1→2→3...)</t>
-  </si>
-  <si>
-    <t>3.75</t>
-  </si>
-  <si>
     <t>正の順序効果あり</t>
-  </si>
-  <si>
-    <t>【こども解説】: 最初にいい音を聞くと、その後の評価も良くなる傾向があるよ！</t>
-  </si>
-  <si>
-    <t>グループB (3→2→1...)</t>
-  </si>
-  <si>
-    <t>3.72</t>
-  </si>
-  <si>
-    <t>順序効果なし</t>
   </si>
   <si>
     <t>【こども解説】: 聞く順番を変えても、みんなの好みはあまり変わらなかったよ。</t>
@@ -1066,88 +1093,100 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B3" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C3" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B5" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+      <c r="D5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B6" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+      <c r="D6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="B7" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+      <c r="D7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B8" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C8" t="s">
-        <v>166</v>
+        <v>174</v>
+      </c>
+      <c r="D8" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -1163,16 +1202,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>17</v>
@@ -1180,44 +1219,44 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="B2">
-        <v>97</v>
+        <v>203</v>
       </c>
       <c r="C2" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="D2" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="E2" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="B3">
-        <v>103</v>
+        <v>197</v>
       </c>
       <c r="C3" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="D3" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="E3" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B5" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -1237,54 +1276,54 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="B2" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="C2" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="B3" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="C3" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="B4" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="C4" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="B6" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -1314,7 +1353,7 @@
         <v>18</v>
       </c>
       <c r="B2">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -1388,118 +1427,118 @@
         <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" t="s">
         <v>41</v>
-      </c>
-      <c r="B3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="H4" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="I4" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
         <v>55</v>
       </c>
-      <c r="D5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="H5" t="s">
         <v>36</v>
       </c>
-      <c r="F5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H5" t="s">
-        <v>58</v>
-      </c>
       <c r="I5" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="J5" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1507,63 +1546,63 @@
         <v>61</v>
       </c>
       <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
         <v>62</v>
       </c>
-      <c r="C6" t="s">
-        <v>48</v>
-      </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G6" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="H6" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="I6" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="J6" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="H7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I7" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1574,54 +1613,77 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:F9"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="3" width="20" customWidth="1"/>
+    <col min="4" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" t="s">
         <v>74</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>75</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>77</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" t="s">
         <v>78</v>
       </c>
-      <c r="D3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
         <v>79</v>
@@ -1630,49 +1692,81 @@
         <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="E4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="E5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="E6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
         <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>73</v>
+      </c>
+      <c r="E7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1688,38 +1782,38 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1735,104 +1829,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B2">
-        <v>93</v>
+        <v>201</v>
       </c>
       <c r="C2">
-        <v>63</v>
+        <v>137</v>
       </c>
       <c r="D2">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="E2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B3">
-        <v>96</v>
+        <v>178</v>
       </c>
       <c r="C3">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="D3">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="E3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B4">
-        <v>137</v>
+        <v>237</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>159</v>
       </c>
       <c r="D4">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="E4" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B5">
-        <v>109</v>
+        <v>221</v>
       </c>
       <c r="C5">
-        <v>54</v>
+        <v>123</v>
       </c>
       <c r="D5">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="E5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B6">
-        <v>145</v>
+        <v>292</v>
       </c>
       <c r="C6">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="D6">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="E6" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1855,121 +1949,121 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
       </c>
       <c r="C2">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="D3" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E3" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C4">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="D4" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E4" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C5">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E5" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="D6" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E6" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C7">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="D7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1985,123 +2079,123 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
         <v>133</v>
-      </c>
-      <c r="C7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B12" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2120,13 +2214,13 @@
         <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2134,55 +2228,55 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="C2">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B3">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="C3">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B4">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="C4">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B5">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C5">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2190,27 +2284,27 @@
         <v>61</v>
       </c>
       <c r="B6">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="C6">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B7">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="C7">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
